--- a/src/test/resources/Countries.xlsx
+++ b/src/test/resources/Countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cybertekstudio/IdeaProjects/online-spring-2019-selenium-testng/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B27F6B-B39E-D343-B5EC-46B52A136D9C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4297D683-3F01-9345-8367-3E8B75150B99}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="22580" xr2:uid="{91ED3504-8F9D-994C-9701-E99A78B95D4B}"/>
   </bookViews>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE3AD6B-2764-CA44-8845-C5296D7C5983}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="251" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="394" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -680,6 +680,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
